--- a/data/case1/11/V2_2.xlsx
+++ b/data/case1/11/V2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999000493855</v>
+        <v>0.99999999672415563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99448578317950931</v>
+        <v>0.99362820179469236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97532518188907213</v>
+        <v>0.96501460430741304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96704645490426266</v>
+        <v>0.9556732347197856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95922538903452081</v>
+        <v>0.94675673838898322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93201820917307321</v>
+        <v>0.92490765949875753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9290279960307215</v>
+        <v>0.9243145106954912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92519809570336542</v>
+        <v>0.92408456272513217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9226290075876511</v>
+        <v>0.92775822365454053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92099582480831688</v>
+        <v>0.93243306147388982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92083819415501034</v>
+        <v>0.9332716165273085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92254596881952367</v>
+        <v>0.93512662146314329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93269840665651516</v>
+        <v>0.92384015411402165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93809051997497017</v>
+        <v>0.919672870741161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93549944860123968</v>
+        <v>0.91708140098769364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93299323581278992</v>
+        <v>0.91457492705765353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92928562388116753</v>
+        <v>0.91086699552647266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92817674966172303</v>
+        <v>0.9097580675184338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9906231540114937</v>
+        <v>0.99191021304280413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.95867475346345066</v>
+        <v>0.98479298406511395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.94972716856582196</v>
+        <v>0.98339446946454678</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.93462377794046647</v>
+        <v>0.98212995941190107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96828981683454263</v>
+        <v>0.9500942220036801</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95526834939131133</v>
+        <v>0.92813777273402986</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94881126893050904</v>
+        <v>0.9216803139429286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9283617683333989</v>
+        <v>0.92125003782625381</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92351392411467148</v>
+        <v>0.91640082150818103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90203685282914225</v>
+        <v>0.89491921226677706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.88676411847329062</v>
+        <v>0.87964447124441481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88019351100162235</v>
+        <v>0.87307331476261418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8725397395428498</v>
+        <v>0.86541880382244285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8708604684210085</v>
+        <v>0.86373940940795824</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87034047896674627</v>
+        <v>0.86321938492077255</v>
       </c>
     </row>
   </sheetData>
